--- a/biology/Médecine/Aura_Carreira_Moreno/Aura_Carreira_Moreno.xlsx
+++ b/biology/Médecine/Aura_Carreira_Moreno/Aura_Carreira_Moreno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aura Carreira Moreno est une chercheuse en biologie médaillée de bronze du CNRS.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carreira obtient son doctorat à l'Université autonome de Madrid puis effectue son stage postdoctoral à l’université de Californie à Davis[1].
-Elle intègre ensuite l'Institut Curie, au sein de l'équipe Stress génotoxiques et cancer[2]. Elle y étudie le gène BRCA2 qui est nécessaire à la recombinaison homologue : ses mutations sont à l'origine d'une prédisposition pour le cancer du sein et de l'ovaire. Pour pousser les recherches, l'équipe cherche à mieux comprendre la fonction de la protéine issue du gène BRCA2 dans la répatation de l'ADN[1]. Elle devient ensuite chef de l'équipe recombination homologue et cancer de l'Institut Curie[3].
-Ses travaux sont financés par ATIP-Avenir, l'INCa, l'Association pour la recherche sur le cancer, la Ligue contre le cancer, le Marie Curie Integration Grant et H2020[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carreira obtient son doctorat à l'Université autonome de Madrid puis effectue son stage postdoctoral à l’université de Californie à Davis.
+Elle intègre ensuite l'Institut Curie, au sein de l'équipe Stress génotoxiques et cancer. Elle y étudie le gène BRCA2 qui est nécessaire à la recombinaison homologue : ses mutations sont à l'origine d'une prédisposition pour le cancer du sein et de l'ovaire. Pour pousser les recherches, l'équipe cherche à mieux comprendre la fonction de la protéine issue du gène BRCA2 dans la répatation de l'ADN. Elle devient ensuite chef de l'équipe recombination homologue et cancer de l'Institut Curie.
+Ses travaux sont financés par ATIP-Avenir, l'INCa, l'Association pour la recherche sur le cancer, la Ligue contre le cancer, le Marie Curie Integration Grant et H2020.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, elle reçoit la médaille de bronze du CNRS pour ses recherches sur l'ADN et le cancer[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, elle reçoit la médaille de bronze du CNRS pour ses recherches sur l'ADN et le cancer. 
 </t>
         </is>
       </c>
